--- a/8семестр/Экология/1.xlsx
+++ b/8семестр/Экология/1.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>NO2</t>
   </si>
@@ -122,6 +123,36 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>Примеси</t>
+  </si>
+  <si>
+    <t>Pi, руб/год</t>
+  </si>
+  <si>
+    <t>Mi, т/год</t>
+  </si>
+  <si>
+    <t>Mi - Мni</t>
+  </si>
+  <si>
+    <t>Pi Mi</t>
+  </si>
+  <si>
+    <t>Рi , (Mi - Мni)</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Мni</t>
+  </si>
+  <si>
+    <t>Р</t>
+  </si>
+  <si>
+    <t>Рi, руб/год</t>
   </si>
 </sst>
 </file>
@@ -151,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,16 +205,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -308,6 +353,235 @@
         <a:xfrm>
           <a:off x="9268239" y="16566"/>
           <a:ext cx="7354957" cy="6359158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>284285</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>569618</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8571035" y="0"/>
+          <a:ext cx="3333333" cy="647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>427893</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>155331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>379286</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>97712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7495443" y="917331"/>
+          <a:ext cx="7876193" cy="3752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="6280" t="353" r="3661" b="3875"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15325726" y="457200"/>
+          <a:ext cx="7239000" cy="5162550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="3160" r="4119"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077200" y="5734050"/>
+          <a:ext cx="7267575" cy="3076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>437182</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>94403</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect t="6752"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="5591175"/>
+          <a:ext cx="7742857" cy="6314228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect r="3868"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="1714500"/>
+          <a:ext cx="7315200" cy="3914286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -585,7 +859,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E13" sqref="A13:E14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,4 +1452,185 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1">
+        <f>1.4</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>55.01</v>
+      </c>
+      <c r="C2" s="1">
+        <v>76.050000000000011</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2-$K$2</f>
+        <v>75.250000000000014</v>
+      </c>
+      <c r="E2" s="2">
+        <f>B2*C2</f>
+        <v>4183.5105000000003</v>
+      </c>
+      <c r="F2" s="2">
+        <f>B2*D2</f>
+        <v>4139.5025000000005</v>
+      </c>
+      <c r="G2" s="2">
+        <f>E2+F2</f>
+        <v>8323.0130000000008</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22.01</v>
+      </c>
+      <c r="C3" s="1">
+        <v>98.865000000000009</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3-$K$2</f>
+        <v>98.065000000000012</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E4" si="0">B3*C3</f>
+        <v>2176.0186500000004</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F4" si="1">B3*D3</f>
+        <v>2158.4106500000003</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G4" si="2">E3+F3</f>
+        <v>4334.4293000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>106.47</v>
+      </c>
+      <c r="D4" s="2">
+        <f>C4-$K$2</f>
+        <v>105.67</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>116.0523</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>115.18030000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="2"/>
+        <v>231.23260000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <f>SUM(G2:G4)</f>
+        <v>12888.674900000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <f>G5*K1</f>
+        <v>18044.14486</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/8семестр/Экология/1.xlsx
+++ b/8семестр/Экология/1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>NO2</t>
   </si>
@@ -153,13 +153,16 @@
   </si>
   <si>
     <t>Рi, руб/год</t>
+  </si>
+  <si>
+    <t>U=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +170,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,13 +238,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -859,7 +876,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="2"/>
+        <f>(D14/D5)^D11</f>
         <v>659.10000000000014</v>
       </c>
       <c r="E17" s="2">
@@ -1177,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1233,7 @@
       <c r="J1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1254,7 +1271,7 @@
         <f>H2*D14</f>
         <v>1901.25</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="6">
         <f>D2*E2*I2*J2</f>
         <v>15948.349514563106</v>
       </c>
@@ -1293,7 +1310,7 @@
         <f>H3*G14</f>
         <v>659.10000000000014</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="6">
         <f t="shared" ref="K3:K4" si="0">D3*E3*I3*J3</f>
         <v>3445.3213483146078</v>
       </c>
@@ -1332,7 +1349,7 @@
         <f>H4*H14</f>
         <v>35.489999999999995</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="6">
         <f t="shared" si="0"/>
         <v>264.62446601941747</v>
       </c>
@@ -1342,7 +1359,7 @@
         <f>SUM(J2:J4)</f>
         <v>2595.84</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="6">
         <f>SUM(K2:K4)</f>
         <v>19658.295328897129</v>
       </c>
@@ -1381,6 +1398,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.4</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1448,9 +1471,25 @@
         <v>106.47</v>
       </c>
     </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <f>J5*B10</f>
+        <v>6230.0160000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>100/((100+B7*B8)*(B9+1))</f>
+        <v>0.1155802126675913</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1459,7 +1498,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,11 +1616,11 @@
         <v>105.67</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <f>B4*C4</f>
         <v>116.0523</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="1"/>
+        <f>B4*D4</f>
         <v>115.18030000000002</v>
       </c>
       <c r="G4" s="2">

--- a/8семестр/Экология/1.xlsx
+++ b/8семестр/Экология/1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>NO2</t>
   </si>
@@ -110,9 +110,6 @@
     <t>U</t>
   </si>
   <si>
-    <t>СО</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -156,6 +153,12 @@
   </si>
   <si>
     <t>U=</t>
+  </si>
+  <si>
+    <t>свинец</t>
+  </si>
+  <si>
+    <t>сажа</t>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>608386</xdr:colOff>
+      <xdr:colOff>450731</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>168292</xdr:rowOff>
     </xdr:to>
@@ -312,7 +315,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>221008</xdr:colOff>
+      <xdr:colOff>221007</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>74305</xdr:rowOff>
     </xdr:to>
@@ -350,7 +353,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>74544</xdr:colOff>
+      <xdr:colOff>74543</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>89224</xdr:rowOff>
     </xdr:to>
@@ -498,16 +501,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>321609</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>47240</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123997</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>170505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -523,8 +526,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8077200" y="5734050"/>
-          <a:ext cx="7267575" cy="3076190"/>
+          <a:off x="321609" y="5666815"/>
+          <a:ext cx="7213786" cy="3076190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -536,15 +539,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>111499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>437182</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>94403</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>322149</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>139227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -560,8 +563,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="5591175"/>
-          <a:ext cx="7742857" cy="6314228"/>
+          <a:off x="0" y="9064999"/>
+          <a:ext cx="7730531" cy="6314228"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -578,8 +581,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>589818</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>104286</xdr:rowOff>
     </xdr:to>
@@ -875,13 +878,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -903,19 +908,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1059,23 +1064,23 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>15.21*A2</f>
+        <v>60.84</v>
+      </c>
+      <c r="B14" s="2">
+        <f>15.21*B2</f>
         <v>76.050000000000011</v>
       </c>
-      <c r="B14" s="2">
-        <f t="shared" ref="B14:E14" si="1">15.21*B2</f>
-        <v>0</v>
-      </c>
       <c r="C14" s="2">
+        <f t="shared" ref="B14:E14" si="1">15.21*C2</f>
+        <v>15.21</v>
+      </c>
+      <c r="D14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="1"/>
-        <v>98.865000000000009</v>
-      </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>106.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1101,27 +1106,27 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>(A14/A5)^A11</f>
-        <v>18312.641572399512</v>
+        <v>13701.495684894915</v>
       </c>
       <c r="B17" s="2">
         <f>(B14/B5)^B11</f>
-        <v>0</v>
+        <v>15210.000000000002</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ref="C17:E17" si="2">(C14/C5)^C11</f>
-        <v>0</v>
+        <f>(C14/C5)^C11</f>
+        <v>11415946.872686494</v>
       </c>
       <c r="D17" s="2">
         <f>(D14/D5)^D11</f>
-        <v>659.10000000000014</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="2"/>
-        <v>24.836786233028231</v>
+        <f t="shared" ref="C17:E17" si="2">(E14/E5)^E11</f>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
         <f>SUM(A17:E17)</f>
-        <v>18996.578358632538</v>
+        <v>11444858.36837139</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1172,7 +1177,7 @@
       </c>
       <c r="B23" s="2">
         <f>IF($F$17&gt;B20, 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2">
         <f>IF(AND($F$17&gt;=C20,$F$17&lt;=B20),1,0)</f>
@@ -1180,7 +1185,7 @@
       </c>
       <c r="D23" s="2">
         <f>IF(AND($F$17&gt;=A20,$F$17&lt;=C20),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <f>IF($F$17&lt;A20, 1, 0)</f>
@@ -1194,13 +1199,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -1241,11 +1250,11 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>76.050000000000011</v>
+      <c r="C2" s="2">
+        <v>60.84</v>
       </c>
       <c r="D2" s="2">
         <v>2.4</v>
@@ -1254,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1">
         <v>0.8</v>
@@ -1269,22 +1278,22 @@
       </c>
       <c r="J2" s="1">
         <f>H2*D14</f>
-        <v>1901.25</v>
+        <v>1521</v>
       </c>
       <c r="K2" s="6">
         <f>D2*E2*I2*J2</f>
-        <v>15948.349514563106</v>
+        <v>12758.679611650485</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>98.865000000000009</v>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>76.050000000000011</v>
       </c>
       <c r="D3" s="2">
         <v>2.4</v>
@@ -1296,34 +1305,34 @@
         <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1">
-        <f>1/G11</f>
-        <v>6.666666666666667</v>
+        <f>1/E11</f>
+        <v>200</v>
       </c>
       <c r="I3" s="1">
         <f>100/(100+B6*B7)*(1+B9)</f>
         <v>0.54451166810717377</v>
       </c>
       <c r="J3" s="1">
-        <f>H3*G14</f>
-        <v>659.10000000000014</v>
+        <f>H3*E14</f>
+        <v>15210.000000000002</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" ref="K3:K4" si="0">D3*E3*I3*J3</f>
-        <v>3445.3213483146078</v>
+        <v>79507.415730337088</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1">
-        <v>106.47</v>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>15.21</v>
       </c>
       <c r="D4" s="2">
         <v>2.4</v>
@@ -1332,41 +1341,41 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1">
         <v>0.6</v>
       </c>
       <c r="H4" s="1">
-        <f>1/H11</f>
-        <v>0.33333333333333331</v>
+        <f>1/F11</f>
+        <v>3333.3333333333335</v>
       </c>
       <c r="I4" s="1">
         <f>100/(100+B7*B8)*(1+G4)</f>
         <v>0.77669902912621369</v>
       </c>
       <c r="J4" s="1">
-        <f>H4*H14</f>
-        <v>35.489999999999995</v>
+        <f>H4*F14</f>
+        <v>50700.000000000007</v>
       </c>
       <c r="K4" s="6">
         <f t="shared" si="0"/>
-        <v>264.62446601941747</v>
+        <v>378034.95145631075</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J5" s="2">
         <f>SUM(J2:J4)</f>
-        <v>2595.84</v>
+        <v>67431</v>
       </c>
       <c r="K5" s="6">
         <f>SUM(K2:K4)</f>
-        <v>19658.295328897129</v>
+        <v>470301.04679829831</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>190</v>
@@ -1383,7 +1392,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
         <v>30</v>
@@ -1391,7 +1400,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1">
         <v>3.2</v>
@@ -1456,34 +1465,46 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="2">
-        <v>76.05</v>
+        <v>60.84</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>76.050000000000011</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>98.865000000000009</v>
-      </c>
-      <c r="H14" s="2">
-        <v>106.47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+        <v>15.21</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <f>J5*B10</f>
-        <v>6230.0160000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+        <v>161834.4</v>
+      </c>
+      <c r="H19">
+        <f>1000/(60*3.53*30)*(4/(1.2))</f>
+        <v>0.5246039240373519</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f>SQRT(H19)</f>
+        <v>0.72429546735938632</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>100/((100+B7*B8)*(B9+1))</f>
         <v>0.1155802126675913</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>60.84/0.04</f>
+        <v>1521</v>
       </c>
     </row>
   </sheetData>
@@ -1497,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,35 +1527,35 @@
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="K1" s="1">
         <f>1.4</f>
@@ -1548,27 +1569,27 @@
       <c r="B2" s="1">
         <v>55.01</v>
       </c>
-      <c r="C2" s="1">
-        <v>76.050000000000011</v>
+      <c r="C2" s="2">
+        <v>60.84</v>
       </c>
       <c r="D2" s="2">
         <f>C2-$K$2</f>
-        <v>75.250000000000014</v>
+        <v>60.040000000000006</v>
       </c>
       <c r="E2" s="2">
         <f>B2*C2</f>
-        <v>4183.5105000000003</v>
+        <v>3346.8083999999999</v>
       </c>
       <c r="F2" s="2">
         <f>B2*D2</f>
-        <v>4139.5025000000005</v>
+        <v>3302.8004000000001</v>
       </c>
       <c r="G2" s="2">
         <f>E2+F2</f>
-        <v>8323.0130000000008</v>
+        <v>6649.6088</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2">
         <v>0.8</v>
@@ -1576,62 +1597,62 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1">
-        <v>22.01</v>
-      </c>
-      <c r="C3" s="1">
-        <v>98.865000000000009</v>
+        <v>66</v>
+      </c>
+      <c r="C3" s="2">
+        <v>76.050000000000011</v>
       </c>
       <c r="D3" s="2">
         <f>C3-$K$2</f>
-        <v>98.065000000000012</v>
+        <v>75.250000000000014</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E4" si="0">B3*C3</f>
-        <v>2176.0186500000004</v>
+        <f t="shared" ref="E3" si="0">B3*C3</f>
+        <v>5019.3000000000011</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F4" si="1">B3*D3</f>
-        <v>2158.4106500000003</v>
+        <f t="shared" ref="F3" si="1">B3*D3</f>
+        <v>4966.5000000000009</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G4" si="2">E3+F3</f>
-        <v>4334.4293000000007</v>
+        <v>9985.8000000000029</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>106.47</v>
+        <v>10999.89</v>
+      </c>
+      <c r="C4" s="2">
+        <v>15.21</v>
       </c>
       <c r="D4" s="2">
         <f>C4-$K$2</f>
-        <v>105.67</v>
+        <v>14.41</v>
       </c>
       <c r="E4" s="2">
         <f>B4*C4</f>
-        <v>116.0523</v>
+        <v>167308.32690000001</v>
       </c>
       <c r="F4" s="2">
         <f>B4*D4</f>
-        <v>115.18030000000002</v>
+        <v>158508.4149</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="2"/>
-        <v>231.23260000000002</v>
+        <v>325816.74180000002</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" s="2">
         <f>SUM(G2:G4)</f>
-        <v>12888.674900000002</v>
+        <v>342452.15060000005</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1643,11 +1664,11 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2">
         <f>G5*K1</f>
-        <v>18044.14486</v>
+        <v>479433.01084000006</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
